--- a/index/spaltenindex_landesstimmen.xlsx
+++ b/index/spaltenindex_landesstimmen.xlsx
@@ -1,96 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/index/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3044C4D-844D-9546-AC5E-2E7332EBA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28080" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t xml:space="preserve">idx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRÜNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AfD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIE LINKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIE WÄHLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tierschutzpartei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die PARTEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIRATEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÖDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verjüngungsforschung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-Partei³</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PdH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dieBasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIE NEUE MITTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUNDESPA. KLIMALISTE</t>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>partei</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>GRÜNE</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>DIE LINKE</t>
+  </si>
+  <si>
+    <t>FREIE WÄHLER</t>
+  </si>
+  <si>
+    <t>Tierschutzpartei</t>
+  </si>
+  <si>
+    <t>Die PARTEI</t>
+  </si>
+  <si>
+    <t>PIRATEN</t>
+  </si>
+  <si>
+    <t>ÖDP</t>
+  </si>
+  <si>
+    <t>Verjüngungsforschung</t>
+  </si>
+  <si>
+    <t>V-Partei³</t>
+  </si>
+  <si>
+    <t>PdH</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>APPD</t>
+  </si>
+  <si>
+    <t>dieBasis</t>
+  </si>
+  <si>
+    <t>DKP</t>
+  </si>
+  <si>
+    <t>DIE NEUE MITTE</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>KLIMALISTE WÄHLERL.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,13 +131,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,14 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,176 +446,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>